--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H2">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I2">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J2">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N2">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O2">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P2">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q2">
-        <v>18.624497526408</v>
+        <v>33.607445146119</v>
       </c>
       <c r="R2">
-        <v>74.49799010563201</v>
+        <v>134.429780584476</v>
       </c>
       <c r="S2">
-        <v>0.0287352931921039</v>
+        <v>0.05184015549795531</v>
       </c>
       <c r="T2">
-        <v>0.01676010602769404</v>
+        <v>0.03326962557569657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H3">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I3">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J3">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N3">
         <v>195.733932</v>
       </c>
       <c r="O3">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P3">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q3">
-        <v>20.710215877056</v>
+        <v>45.93914530826401</v>
       </c>
       <c r="R3">
-        <v>124.261295262336</v>
+        <v>275.634871849584</v>
       </c>
       <c r="S3">
-        <v>0.03195329830805619</v>
+        <v>0.07086204934261675</v>
       </c>
       <c r="T3">
-        <v>0.02795555263682074</v>
+        <v>0.06821605259020823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H4">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I4">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J4">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N4">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O4">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P4">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q4">
-        <v>23.96468786148801</v>
+        <v>55.208637194022</v>
       </c>
       <c r="R4">
-        <v>143.788127168928</v>
+        <v>331.251823164132</v>
       </c>
       <c r="S4">
-        <v>0.0369745455403931</v>
+        <v>0.08516042574866205</v>
       </c>
       <c r="T4">
-        <v>0.03234858086047344</v>
+        <v>0.08198052604134198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H5">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I5">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J5">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N5">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O5">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P5">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q5">
-        <v>10.865743959528</v>
+        <v>22.592173246344</v>
       </c>
       <c r="R5">
-        <v>43.462975838112</v>
+        <v>90.368692985376</v>
       </c>
       <c r="S5">
-        <v>0.01676449729635134</v>
+        <v>0.03484887854566557</v>
       </c>
       <c r="T5">
-        <v>0.009778036726802802</v>
+        <v>0.02236507838007832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H6">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I6">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J6">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N6">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O6">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P6">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q6">
-        <v>14.541342417664</v>
+        <v>47.647036322262</v>
       </c>
       <c r="R6">
-        <v>87.24805450598402</v>
+        <v>285.882217933572</v>
       </c>
       <c r="S6">
-        <v>0.02243549052455647</v>
+        <v>0.0734965053494412</v>
       </c>
       <c r="T6">
-        <v>0.01962853819488175</v>
+        <v>0.07075213771864168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H7">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I7">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J7">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N7">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O7">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P7">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q7">
-        <v>32.42901297688</v>
+        <v>40.274394030702</v>
       </c>
       <c r="R7">
-        <v>194.57407786128</v>
+        <v>241.646364184212</v>
       </c>
       <c r="S7">
-        <v>0.05003395095625493</v>
+        <v>0.06212405733491522</v>
       </c>
       <c r="T7">
-        <v>0.04377409606046959</v>
+        <v>0.05980433816958525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.034265</v>
       </c>
       <c r="I8">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J8">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N8">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O8">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P8">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q8">
-        <v>20.2281133270225</v>
+        <v>16.4553842054325</v>
       </c>
       <c r="R8">
-        <v>121.368679962135</v>
+        <v>98.732305232595</v>
       </c>
       <c r="S8">
-        <v>0.03120947377779809</v>
+        <v>0.02538275885832187</v>
       </c>
       <c r="T8">
-        <v>0.02730478958858337</v>
+        <v>0.02443496383786519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.034265</v>
       </c>
       <c r="I9">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J9">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N9">
         <v>195.733932</v>
       </c>
       <c r="O9">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P9">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q9">
         <v>22.49341724222</v>
@@ -1013,10 +1013,10 @@
         <v>202.44075517998</v>
       </c>
       <c r="S9">
-        <v>0.03470455717965217</v>
+        <v>0.03469654543650223</v>
       </c>
       <c r="T9">
-        <v>0.0455438934168831</v>
+        <v>0.05010145889412369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.034265</v>
       </c>
       <c r="I10">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J10">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N10">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O10">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P10">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q10">
-        <v>26.02810740110167</v>
+        <v>27.03208567435167</v>
       </c>
       <c r="R10">
-        <v>234.252966609915</v>
+        <v>243.288771069165</v>
       </c>
       <c r="S10">
-        <v>0.04015814635244412</v>
+        <v>0.04169753215990203</v>
       </c>
       <c r="T10">
-        <v>0.05270081182213311</v>
+        <v>0.06021081255247687</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.034265</v>
       </c>
       <c r="I11">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J11">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N11">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O11">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P11">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q11">
-        <v>11.8013116801725</v>
+        <v>11.06192063062</v>
       </c>
       <c r="R11">
-        <v>70.80787008103499</v>
+        <v>66.37152378371999</v>
       </c>
       <c r="S11">
-        <v>0.01820796242692299</v>
+        <v>0.01706323355149783</v>
       </c>
       <c r="T11">
-        <v>0.01592992520295677</v>
+        <v>0.01642609052527013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.034265</v>
       </c>
       <c r="I12">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J12">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N12">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O12">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P12">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q12">
-        <v>15.79338835501333</v>
+        <v>23.32966060121833</v>
       </c>
       <c r="R12">
-        <v>142.14049519512</v>
+        <v>209.966945410965</v>
       </c>
       <c r="S12">
-        <v>0.02436724235027429</v>
+        <v>0.03598646752299597</v>
       </c>
       <c r="T12">
-        <v>0.03197790661092005</v>
+        <v>0.05196409327400344</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.034265</v>
       </c>
       <c r="I13">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J13">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N13">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O13">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P13">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q13">
-        <v>35.22123207080833</v>
+        <v>19.71975627825167</v>
       </c>
       <c r="R13">
-        <v>316.991088637275</v>
+        <v>177.477806504265</v>
       </c>
       <c r="S13">
-        <v>0.05434199922477086</v>
+        <v>0.03041811799146534</v>
       </c>
       <c r="T13">
-        <v>0.0713147327580485</v>
+        <v>0.04392345315688695</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H14">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I14">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J14">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N14">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O14">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P14">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q14">
-        <v>2.784388509632333</v>
+        <v>3.1067728468145</v>
       </c>
       <c r="R14">
-        <v>16.706331057794</v>
+        <v>18.640637080887</v>
       </c>
       <c r="S14">
-        <v>0.0042959666467008</v>
+        <v>0.004792259178745926</v>
       </c>
       <c r="T14">
-        <v>0.003758489047360453</v>
+        <v>0.004613315691487286</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H15">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I15">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J15">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N15">
         <v>195.733932</v>
       </c>
       <c r="O15">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P15">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q15">
-        <v>3.096206329234666</v>
+        <v>4.246752129745334</v>
       </c>
       <c r="R15">
-        <v>27.86585696311199</v>
+        <v>38.220769167708</v>
       </c>
       <c r="S15">
-        <v>0.004777062926269728</v>
+        <v>0.006550699995494727</v>
       </c>
       <c r="T15">
-        <v>0.006269091509611153</v>
+        <v>0.009459144200757675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H16">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I16">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J16">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N16">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O16">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P16">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q16">
-        <v>3.582754456802889</v>
+        <v>5.103651711645445</v>
       </c>
       <c r="R16">
-        <v>32.244790111226</v>
+        <v>45.932865404809</v>
       </c>
       <c r="S16">
-        <v>0.005527746432115618</v>
+        <v>0.007872484718454082</v>
       </c>
       <c r="T16">
-        <v>0.007254237333632872</v>
+        <v>0.01136778790378637</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H17">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I17">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J17">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N17">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O17">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P17">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q17">
-        <v>1.624443966159</v>
+        <v>2.088488133718667</v>
       </c>
       <c r="R17">
-        <v>9.746663796954</v>
+        <v>12.530928802312</v>
       </c>
       <c r="S17">
-        <v>0.002506315865732012</v>
+        <v>0.003221534667002587</v>
       </c>
       <c r="T17">
-        <v>0.002192745313284451</v>
+        <v>0.003101242206570824</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H18">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I18">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J18">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N18">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O18">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P18">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q18">
-        <v>2.173951092369778</v>
+        <v>4.404634688343222</v>
       </c>
       <c r="R18">
-        <v>19.565559831328</v>
+        <v>39.641712195089</v>
       </c>
       <c r="S18">
-        <v>0.003354137309528166</v>
+        <v>0.006794236996077312</v>
       </c>
       <c r="T18">
-        <v>0.004401740997297833</v>
+        <v>0.009810809153864218</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H19">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I19">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J19">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N19">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O19">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P19">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q19">
-        <v>4.848182936667778</v>
+        <v>3.723085561918778</v>
       </c>
       <c r="R19">
-        <v>43.63364643001</v>
+        <v>33.507770057269</v>
       </c>
       <c r="S19">
-        <v>0.007480145863616896</v>
+        <v>0.005742933853582444</v>
       </c>
       <c r="T19">
-        <v>0.009816433161551761</v>
+        <v>0.008292738103379846</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H20">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I20">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J20">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N20">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O20">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P20">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q20">
-        <v>32.4069331470785</v>
+        <v>33.070475204244</v>
       </c>
       <c r="R20">
-        <v>129.627732588314</v>
+        <v>132.281900816976</v>
       </c>
       <c r="S20">
-        <v>0.04999988451327689</v>
+        <v>0.05101186863581808</v>
       </c>
       <c r="T20">
-        <v>0.02916286116214922</v>
+        <v>0.03273805321624133</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H21">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I21">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J21">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N21">
         <v>195.733932</v>
       </c>
       <c r="O21">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P21">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q21">
-        <v>36.036117508012</v>
+        <v>45.20514306326401</v>
       </c>
       <c r="R21">
-        <v>216.216705048072</v>
+        <v>271.230858379584</v>
       </c>
       <c r="S21">
-        <v>0.05559926653750352</v>
+        <v>0.0697298362168879</v>
       </c>
       <c r="T21">
-        <v>0.04864312307521405</v>
+        <v>0.06712611642769882</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H22">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I22">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J22">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N22">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O22">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P22">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q22">
-        <v>41.69895248538434</v>
+        <v>54.326529715272</v>
       </c>
       <c r="R22">
-        <v>250.193714912306</v>
+        <v>325.959178291632</v>
       </c>
       <c r="S22">
-        <v>0.06433631961195919</v>
+        <v>0.08379975734124548</v>
       </c>
       <c r="T22">
-        <v>0.05628706470398984</v>
+        <v>0.08067066514260642</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H23">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I23">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J23">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N23">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O23">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P23">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q23">
-        <v>18.9065738600685</v>
+        <v>22.231202101344</v>
       </c>
       <c r="R23">
-        <v>75.62629544027399</v>
+        <v>88.924808405376</v>
       </c>
       <c r="S23">
-        <v>0.02917050204210349</v>
+        <v>0.03429207334355291</v>
       </c>
       <c r="T23">
-        <v>0.01701394531937693</v>
+        <v>0.02200773569051754</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H24">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I24">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J24">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N24">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O24">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P24">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q24">
-        <v>25.30217585359467</v>
+        <v>46.885745893512</v>
       </c>
       <c r="R24">
-        <v>151.813055121568</v>
+        <v>281.314475361072</v>
       </c>
       <c r="S24">
-        <v>0.03903812387530433</v>
+        <v>0.07232219965515481</v>
       </c>
       <c r="T24">
-        <v>0.03415398048481424</v>
+        <v>0.06962168072873572</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H25">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I25">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J25">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N25">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O25">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P25">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q25">
-        <v>56.42701791430166</v>
+        <v>39.630901526952</v>
       </c>
       <c r="R25">
-        <v>338.56210748581</v>
+        <v>237.785409161712</v>
       </c>
       <c r="S25">
-        <v>0.0870599006187673</v>
+        <v>0.06113145729313487</v>
       </c>
       <c r="T25">
-        <v>0.07616764976311415</v>
+        <v>0.05884880192304305</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H26">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I26">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J26">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N26">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O26">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P26">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q26">
-        <v>23.42404042746783</v>
+        <v>0.5857665881485</v>
       </c>
       <c r="R26">
-        <v>140.544242564807</v>
+        <v>3.514599528891</v>
       </c>
       <c r="S26">
-        <v>0.0361403935044469</v>
+        <v>0.0009035566638016724</v>
       </c>
       <c r="T26">
-        <v>0.03161879137448082</v>
+        <v>0.0008698177581361477</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H27">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I27">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J27">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N27">
         <v>195.733932</v>
       </c>
       <c r="O27">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P27">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q27">
-        <v>26.04724950447067</v>
+        <v>0.8007040193826669</v>
       </c>
       <c r="R27">
-        <v>234.425245540236</v>
+        <v>7.206336174444001</v>
       </c>
       <c r="S27">
-        <v>0.0401876802473501</v>
+        <v>0.001235101945183974</v>
       </c>
       <c r="T27">
-        <v>0.05273957009110686</v>
+        <v>0.001783474653115935</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H28">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I28">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J28">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N28">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O28">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P28">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q28">
-        <v>30.14040064722256</v>
+        <v>0.9622681791152223</v>
       </c>
       <c r="R28">
-        <v>271.263605825003</v>
+        <v>8.660413612037001</v>
       </c>
       <c r="S28">
-        <v>0.04650290555744496</v>
+        <v>0.001484317889062391</v>
       </c>
       <c r="T28">
-        <v>0.06102724098509534</v>
+        <v>0.002143339942610976</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H29">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I29">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J29">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N29">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O29">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P29">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q29">
-        <v>13.6658519469645</v>
+        <v>0.3937740635693334</v>
       </c>
       <c r="R29">
-        <v>81.99511168178699</v>
+        <v>2.362644381416</v>
       </c>
       <c r="S29">
-        <v>0.02108471715057567</v>
+        <v>0.0006074043592942774</v>
       </c>
       <c r="T29">
-        <v>0.0184467629742869</v>
+        <v>0.0005847238134026294</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H30">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I30">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J30">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N30">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O30">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P30">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q30">
-        <v>18.28865407928711</v>
+        <v>0.8304719915641112</v>
       </c>
       <c r="R30">
-        <v>164.597886713584</v>
+        <v>7.474247924077001</v>
       </c>
       <c r="S30">
-        <v>0.02821712834465061</v>
+        <v>0.00128101963693458</v>
       </c>
       <c r="T30">
-        <v>0.03703023436394005</v>
+        <v>0.001849779333216327</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H31">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I31">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J31">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N31">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O31">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P31">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q31">
-        <v>40.78598683890611</v>
+        <v>0.7019692892018889</v>
       </c>
       <c r="R31">
-        <v>367.073881550155</v>
+        <v>6.317723602817001</v>
       </c>
       <c r="S31">
-        <v>0.06292772668274475</v>
+        <v>0.001082801651503028</v>
       </c>
       <c r="T31">
-        <v>0.08258205578505531</v>
+        <v>0.001563554577286389</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H32">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I32">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J32">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N32">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O32">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P32">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q32">
-        <v>2.183118150476167</v>
+        <v>2.0047036932205</v>
       </c>
       <c r="R32">
-        <v>13.098708902857</v>
+        <v>12.028222159323</v>
       </c>
       <c r="S32">
-        <v>0.003368280944921424</v>
+        <v>0.003092295493811948</v>
       </c>
       <c r="T32">
-        <v>0.002946868093038478</v>
+        <v>0.002976828838387504</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H33">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I33">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J33">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N33">
         <v>195.733932</v>
       </c>
       <c r="O33">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P33">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q33">
-        <v>2.427600965737333</v>
+        <v>2.740296796214667</v>
       </c>
       <c r="R33">
-        <v>21.848408691636</v>
+        <v>24.662671165932</v>
       </c>
       <c r="S33">
-        <v>0.003745487651679516</v>
+        <v>0.004226962549776621</v>
       </c>
       <c r="T33">
-        <v>0.004915322489761079</v>
+        <v>0.006103690951659854</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H34">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I34">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J34">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N34">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O34">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P34">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q34">
-        <v>2.809082229828111</v>
+        <v>3.293227390517889</v>
       </c>
       <c r="R34">
-        <v>25.281740068453</v>
+        <v>29.639046514661</v>
       </c>
       <c r="S34">
-        <v>0.004334065998848332</v>
+        <v>0.005079869037122803</v>
       </c>
       <c r="T34">
-        <v>0.005687732561792155</v>
+        <v>0.007335279248959056</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H35">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I35">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J35">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N35">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O35">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P35">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q35">
-        <v>1.2736559911395</v>
+        <v>1.347636303441333</v>
       </c>
       <c r="R35">
-        <v>7.641935946837</v>
+        <v>8.085817820648</v>
       </c>
       <c r="S35">
-        <v>0.001965093462488265</v>
+        <v>0.002078755919152517</v>
       </c>
       <c r="T35">
-        <v>0.001719236405495345</v>
+        <v>0.00200113494343767</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H36">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I36">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J36">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N36">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O36">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P36">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q36">
-        <v>1.704500672798222</v>
+        <v>2.842173490753444</v>
       </c>
       <c r="R36">
-        <v>15.340506055184</v>
+        <v>25.579561416781</v>
       </c>
       <c r="S36">
-        <v>0.002629833449710342</v>
+        <v>0.004384109386245319</v>
       </c>
       <c r="T36">
-        <v>0.003451214021194499</v>
+        <v>0.006330609386006204</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H37">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I37">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J37">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N37">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O37">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P37">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q37">
-        <v>3.801249764267222</v>
+        <v>2.402391080444556</v>
       </c>
       <c r="R37">
-        <v>34.211247878405</v>
+        <v>21.621519724001</v>
       </c>
       <c r="S37">
-        <v>0.005864857632682725</v>
+        <v>0.003705736233018254</v>
       </c>
       <c r="T37">
-        <v>0.007696639076688903</v>
+        <v>0.005351045448913878</v>
       </c>
     </row>
   </sheetData>
